--- a/doc/app/pg0171/エビデンス/No7.xlsx
+++ b/doc/app/pg0171/エビデンス/No7.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\rust\rust_learn\doc\app\pg0171\エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6869353-D2E8-4486-8493-010B1D41DF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54904044-5BA9-4297-9864-FF6A84840DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="エビデンス" sheetId="1" r:id="rId1"/>
+    <sheet name="1回目" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
